--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>681.7140765179191</v>
+        <v>48.44265157269915</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.812000036239624</v>
+        <v>0.5710000991821289</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.62407651846028</v>
+        <v>40.44265157269914</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.422779792863088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.422779792863088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>578.4999999994589</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.59</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -904,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31.75223660871884</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>35.67494997151325</v>
       </c>
     </row>
     <row r="6">
@@ -928,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.24751652694442</v>
+        <v>32.7338617375427</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,34 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>161.2049999999508</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.9049999999442</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>173.0099999999584</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>162.9049999999515</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1167,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>173.589999999951</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1189,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1211,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.03000000000613</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1244,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77500000000691</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -1255,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.17000000000736</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99500000000808</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -1277,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.74000000000707</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.5150000000041</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1299,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92000000000415</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.6450000000033</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.7450000000028</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1332,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.4900000000032</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1343,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7350000000623</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -1354,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2650000000482</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -1365,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>198.1249999999621</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1376,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.6049999999548</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -1387,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.90500000006</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1409,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>122.0650000000369</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>116.7150000000311</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.2100000000301</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>122.6300000000283</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -1453,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>161.2049999999174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1464,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.9049999999145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1475,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>173.0099999999249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1486,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>162.9049999999181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1497,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>173.5899999999176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1508,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>185.7350000000881</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -1519,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>184.2650000000774</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
@@ -1530,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>198.124999999956</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
@@ -1541,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>195.6049999999487</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
@@ -1552,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>190.9050000000848</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.20499999991648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1665,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.90499999991357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1676,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>23.00999999992405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1687,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.90499999991721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5899999999167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1709,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>35.73500000008517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1720,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.26500000007491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>48.12499999995327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1742,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.60499999994602</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1753,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>40.90500000008205</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1921,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1932,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1943,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1954,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2078,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,10 +2055,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2116,100 +2066,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
